--- a/Data/Countries.xlsx
+++ b/Data/Countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Multilanguage-Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Multilanguage-Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630B970-3846-413F-AEC1-8E7E6C6E7DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2174C20-6B6A-4386-BD5F-52A33090548B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" xr2:uid="{B5D268BA-851A-4EAD-A0EF-C78CA18730E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5D268BA-851A-4EAD-A0EF-C78CA18730E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Country Data" sheetId="1" r:id="rId1"/>
@@ -1836,22 +1836,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27933A0-B21A-4E19-BEBD-5575DCEB0ED6}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2321,6 +2321,9 @@
       <c r="C21" t="s">
         <v>51</v>
       </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
       <c r="E21">
         <v>62278</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2456,6 +2459,9 @@
       <c r="C27" t="s">
         <v>63</v>
       </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
       <c r="E27">
         <v>30231</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2637,6 +2643,9 @@
       <c r="C35" t="s">
         <v>79</v>
       </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
       <c r="E35">
         <v>65722</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2794,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2818,6 +2827,9 @@
       <c r="C43" t="s">
         <v>95</v>
       </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
       <c r="E43">
         <v>17564</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2932,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3024,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3047,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3045,6 +3057,9 @@
       <c r="C53" t="s">
         <v>115</v>
       </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
       <c r="E53">
         <v>71986</v>
       </c>
@@ -3055,7 +3070,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3093,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3101,7 +3116,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3147,7 +3162,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3170,7 +3185,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3208,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3231,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3239,7 +3254,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3249,6 +3264,9 @@
       <c r="C62" t="s">
         <v>133</v>
       </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
       <c r="E62">
         <v>3480</v>
       </c>
@@ -3259,7 +3277,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3346,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -3374,7 +3392,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3397,7 +3415,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3420,7 +3438,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3507,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3499,14 +3517,20 @@
       <c r="C73" t="s">
         <v>155</v>
       </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
       <c r="E73">
         <v>33691</v>
       </c>
       <c r="F73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3529,7 +3553,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3539,6 +3563,9 @@
       <c r="C75" t="s">
         <v>159</v>
       </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
       <c r="E75">
         <v>56770</v>
       </c>
@@ -3549,7 +3576,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3572,7 +3599,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -3591,8 +3618,11 @@
       <c r="F77">
         <v>1690</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3645,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -3638,7 +3668,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +3691,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +3714,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3737,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3730,7 +3760,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3740,14 +3770,20 @@
       <c r="C84" t="s">
         <v>177</v>
       </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
       <c r="E84">
         <v>801</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3806,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3789,8 +3825,11 @@
       <c r="F86">
         <v>1050</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3813,7 +3852,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3836,7 +3875,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -3859,7 +3898,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -3882,7 +3921,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +3944,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3928,7 +3967,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3951,7 +3990,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3961,6 +4000,9 @@
       <c r="C94" t="s">
         <v>197</v>
       </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
       <c r="E94">
         <v>85033</v>
       </c>
@@ -3971,7 +4013,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3994,7 +4036,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4017,7 +4059,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -4040,7 +4082,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4105,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -4086,7 +4128,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -4109,7 +4151,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +4174,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -4155,7 +4197,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -4174,8 +4216,11 @@
       <c r="F103">
         <v>17820</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -4198,7 +4243,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +4266,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4244,7 +4289,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4312,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4335,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -4313,7 +4358,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -4336,7 +4381,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -4346,6 +4391,9 @@
       <c r="C111" t="s">
         <v>231</v>
       </c>
+      <c r="D111">
+        <v>30</v>
+      </c>
       <c r="E111">
         <v>38128</v>
       </c>
@@ -4356,7 +4404,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -4379,7 +4427,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4402,7 +4450,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4421,8 +4469,11 @@
       <c r="F114">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -4445,7 +4496,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -4468,7 +4519,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -4491,7 +4542,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4514,7 +4565,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -4537,7 +4588,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4611,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -4570,6 +4621,9 @@
       <c r="C121" t="s">
         <v>251</v>
       </c>
+      <c r="D121">
+        <v>30</v>
+      </c>
       <c r="E121">
         <v>59190</v>
       </c>
@@ -4580,7 +4634,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -4603,7 +4657,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +4680,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +4703,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4672,7 +4726,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -4695,7 +4749,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -4718,7 +4772,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4741,7 +4795,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4751,14 +4805,20 @@
       <c r="C129" t="s">
         <v>267</v>
       </c>
+      <c r="D129">
+        <v>30</v>
+      </c>
       <c r="E129">
         <v>39242</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -4781,7 +4841,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4804,7 +4864,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -4814,6 +4874,9 @@
       <c r="C132" t="s">
         <v>273</v>
       </c>
+      <c r="D132">
+        <v>30</v>
+      </c>
       <c r="E132">
         <v>4992</v>
       </c>
@@ -4824,7 +4887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4847,7 +4910,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4870,7 +4933,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4893,7 +4956,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4916,7 +4979,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -4926,14 +4989,20 @@
       <c r="C137" t="s">
         <v>283</v>
       </c>
+      <c r="D137">
+        <v>30</v>
+      </c>
       <c r="E137">
         <v>10824</v>
       </c>
       <c r="F137">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4956,7 +5025,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4979,7 +5048,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -5002,7 +5071,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -5025,7 +5094,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -5048,7 +5117,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5140,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -5094,7 +5163,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -5104,6 +5173,9 @@
       <c r="C145" t="s">
         <v>299</v>
       </c>
+      <c r="D145">
+        <v>30</v>
+      </c>
       <c r="E145">
         <v>1626</v>
       </c>
@@ -5114,7 +5186,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -5137,7 +5209,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -5147,6 +5219,9 @@
       <c r="C147" t="s">
         <v>303</v>
       </c>
+      <c r="D147">
+        <v>30</v>
+      </c>
       <c r="E147">
         <v>57559</v>
       </c>
@@ -5157,7 +5232,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5180,7 +5255,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -5203,7 +5278,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -5226,7 +5301,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -5236,14 +5311,20 @@
       <c r="C151" t="s">
         <v>311</v>
       </c>
+      <c r="D151">
+        <v>30</v>
+      </c>
       <c r="E151">
         <v>18094</v>
       </c>
       <c r="F151">
         <v>460</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5266,7 +5347,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -5289,7 +5370,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -5312,7 +5393,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -5335,7 +5416,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -5358,7 +5439,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5381,7 +5462,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5404,7 +5485,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -5423,8 +5504,11 @@
       <c r="F159">
         <v>8870</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -5447,7 +5531,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -5470,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -5493,7 +5577,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5516,7 +5600,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -5539,7 +5623,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -5549,6 +5633,9 @@
       <c r="C165" t="s">
         <v>339</v>
       </c>
+      <c r="D165">
+        <v>30</v>
+      </c>
       <c r="E165">
         <v>9877</v>
       </c>
@@ -5559,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -5569,6 +5656,9 @@
       <c r="C166" t="s">
         <v>341</v>
       </c>
+      <c r="D166">
+        <v>30</v>
+      </c>
       <c r="E166">
         <v>6077</v>
       </c>
@@ -5579,7 +5669,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -5589,6 +5679,9 @@
       <c r="C167" t="s">
         <v>343</v>
       </c>
+      <c r="D167">
+        <v>30</v>
+      </c>
       <c r="E167">
         <v>53199</v>
       </c>
@@ -5599,7 +5692,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -5622,7 +5715,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -5632,6 +5725,9 @@
       <c r="C169" t="s">
         <v>347</v>
       </c>
+      <c r="D169">
+        <v>30</v>
+      </c>
       <c r="E169">
         <v>38666</v>
       </c>
@@ -5642,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -5652,6 +5748,9 @@
       <c r="C170" t="s">
         <v>349</v>
       </c>
+      <c r="D170">
+        <v>30</v>
+      </c>
       <c r="E170">
         <v>5794</v>
       </c>
@@ -5662,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -5685,7 +5784,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -5695,6 +5794,9 @@
       <c r="C172" t="s">
         <v>353</v>
       </c>
+      <c r="D172">
+        <v>30</v>
+      </c>
       <c r="E172">
         <v>33931</v>
       </c>
@@ -5705,7 +5807,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -5728,7 +5830,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5751,7 +5853,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -5774,7 +5876,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -5797,7 +5899,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -5820,7 +5922,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -5843,7 +5945,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -5862,8 +5964,11 @@
       <c r="F179">
         <v>700</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -5873,6 +5978,9 @@
       <c r="C180" t="s">
         <v>369</v>
       </c>
+      <c r="D180">
+        <v>30</v>
+      </c>
       <c r="E180">
         <v>42876</v>
       </c>
@@ -5883,7 +5991,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +6014,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -5929,7 +6037,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -5952,7 +6060,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -5975,7 +6083,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -5998,7 +6106,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -6021,7 +6129,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +6152,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -6067,7 +6175,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -6090,7 +6198,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -6113,7 +6221,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -6136,7 +6244,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -6159,7 +6267,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -6182,7 +6290,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -6205,7 +6313,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -6228,7 +6336,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -6251,7 +6359,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -6274,7 +6382,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -6297,7 +6405,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -6320,7 +6428,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -6343,7 +6451,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -6353,6 +6461,9 @@
       <c r="C201" t="s">
         <v>411</v>
       </c>
+      <c r="D201">
+        <v>30</v>
+      </c>
       <c r="E201">
         <v>1357</v>
       </c>
@@ -6363,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>27</v>
       </c>
@@ -6386,7 +6497,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -6409,7 +6520,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -6432,7 +6543,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -6455,7 +6566,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -6478,7 +6589,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -6488,6 +6599,9 @@
       <c r="C207" t="s">
         <v>423</v>
       </c>
+      <c r="D207">
+        <v>30</v>
+      </c>
       <c r="E207">
         <v>38717</v>
       </c>
@@ -6498,7 +6612,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -6508,6 +6622,9 @@
       <c r="C208" t="s">
         <v>425</v>
       </c>
+      <c r="D208">
+        <v>30</v>
+      </c>
       <c r="E208">
         <v>11792</v>
       </c>
@@ -6518,7 +6635,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -6541,7 +6658,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -6564,7 +6681,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -6587,7 +6704,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -6610,7 +6727,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -6633,7 +6750,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -6656,7 +6773,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -6679,7 +6796,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -6702,7 +6819,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -6721,8 +6838,11 @@
       <c r="F217">
         <v>882050</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -6745,7 +6865,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>27</v>
       </c>
@@ -6755,6 +6875,9 @@
       <c r="C219" t="s">
         <v>447</v>
       </c>
+      <c r="D219">
+        <v>30</v>
+      </c>
       <c r="E219">
         <v>11239</v>
       </c>
@@ -6765,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -6788,7 +6911,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -6811,7 +6934,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -6834,7 +6957,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -6873,13 +6996,13 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6899,7 +7022,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6919,7 +7042,7 @@
         <v>21141556283</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6939,7 +7062,7 @@
         <v>13116565123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6959,7 +7082,7 @@
         <v>213771287482</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6979,7 +7102,7 @@
         <v>134935090330</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>461</v>
       </c>
@@ -6999,7 +7122,7 @@
         <v>1180894970</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7019,7 +7142,7 @@
         <v>525940080584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7039,7 +7162,7 @@
         <v>12047457836</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -7059,7 +7182,7 @@
         <v>2613644824</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -7079,7 +7202,7 @@
         <v>1529421095384</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -7099,7 +7222,7 @@
         <v>430446238040</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -7119,7 +7242,7 @@
         <v>73360860873</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -7139,7 +7262,7 @@
         <v>10376333295</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -7159,7 +7282,7 @@
         <v>32157332384</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -7179,7 +7302,7 @@
         <v>171249750509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -7199,7 +7322,7 @@
         <v>4451988170</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -7219,7 +7342,7 @@
         <v>71939575908</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -7239,7 +7362,7 @@
         <v>535793201983</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -7259,7 +7382,7 @@
         <v>1501196963</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -7279,7 +7402,7 @@
         <v>13069577668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7299,7 +7422,7 @@
         <v>6508284316</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -7319,7 +7442,7 @@
         <v>1766282617</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -7339,7 +7462,7 @@
         <v>30352501121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7359,7 +7482,7 @@
         <v>18454747152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -7379,7 +7502,7 @@
         <v>15706323344</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -7399,7 +7522,7 @@
         <v>2456973659048</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -7419,7 +7542,7 @@
         <v>17656354717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -7439,7 +7562,7 @@
         <v>55922026618</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -7459,7 +7582,7 @@
         <v>13374189110</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -7479,7 +7602,7 @@
         <v>2603067067</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -7499,7 +7622,7 @@
         <v>15573069863</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -7519,7 +7642,7 @@
         <v>33690669389</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -7539,7 +7662,7 @@
         <v>1849251405119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -7559,7 +7682,7 @@
         <v>2612050936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -7579,7 +7702,7 @@
         <v>1742839476</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -7599,7 +7722,7 @@
         <v>13352646184</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -7619,7 +7742,7 @@
         <v>265284600687</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -7639,7 +7762,7 @@
         <v>10246603763272</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -7659,7 +7782,7 @@
         <v>384900588166</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -7679,7 +7802,7 @@
         <v>1128219911</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -7699,7 +7822,7 @@
         <v>48398598949</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -7719,7 +7842,7 @@
         <v>56200508764</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -7739,7 +7862,7 @@
         <v>77327219279</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -7759,7 +7882,7 @@
         <v>22618581237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -7779,7 +7902,7 @@
         <v>198969105296</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -7799,7 +7922,7 @@
         <v>359299230657</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -7819,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -7839,7 +7962,7 @@
         <v>499169986</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -7859,7 +7982,7 @@
         <v>64373664413</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -7879,7 +8002,7 @@
         <v>97454861960</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -7899,7 +8022,7 @@
         <v>292268185049</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -7919,7 +8042,7 @@
         <v>21429727940</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -7939,7 +8062,7 @@
         <v>14849042875</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -7959,7 +8082,7 @@
         <v>24969410196</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -7979,7 +8102,7 @@
         <v>53613560417</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -7999,7 +8122,7 @@
         <v>4349738475</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -8019,7 +8142,7 @@
         <v>269765654000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -8039,7 +8162,7 @@
         <v>2872584366614</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -8059,7 +8182,7 @@
         <v>17571304010</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -8079,7 +8202,7 @@
         <v>1306587718</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -8099,7 +8222,7 @@
         <v>17620701379</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -8119,7 +8242,7 @@
         <v>3856354139366</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -8139,7 +8262,7 @@
         <v>51861682325</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -8159,7 +8282,7 @@
         <v>239752924701</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -8179,7 +8302,7 @@
         <v>818665982</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -8199,7 +8322,7 @@
         <v>54574714159</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>168</v>
       </c>
@@ -8219,7 +8342,7 @@
         <v>8305502064</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -8239,7 +8362,7 @@
         <v>1087414365</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -8259,7 +8382,7 @@
         <v>4253485459</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>174</v>
       </c>
@@ -8279,7 +8402,7 @@
         <v>14884140517</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -8299,7 +8422,7 @@
         <v>17931449913</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>180</v>
       </c>
@@ -8319,7 +8442,7 @@
         <v>290893127090</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -8339,7 +8462,7 @@
         <v>133746192126</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>184</v>
       </c>
@@ -8359,7 +8482,7 @@
         <v>15789675087</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -8379,7 +8502,7 @@
         <v>2020999036100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>188</v>
       </c>
@@ -8399,7 +8522,7 @@
         <v>922995728689</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -8419,7 +8542,7 @@
         <v>503571365554</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>192</v>
       </c>
@@ -8439,7 +8562,7 @@
         <v>234959962237</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -8459,7 +8582,7 @@
         <v>215752378090</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>462</v>
       </c>
@@ -8479,7 +8602,7 @@
         <v>7430503063</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -8499,7 +8622,7 @@
         <v>295900916757</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -8519,7 +8642,7 @@
         <v>2121223122239</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -8539,7 +8662,7 @@
         <v>14126596416</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -8559,7 +8682,7 @@
         <v>5593496700018</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -8579,7 +8702,7 @@
         <v>34989005029</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -8599,7 +8722,7 @@
         <v>208881358747</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>210</v>
       </c>
@@ -8619,7 +8742,7 @@
         <v>57832847293</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -8639,7 +8762,7 @@
         <v>351820627</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -8659,7 +8782,7 @@
         <v>188255675165</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>220</v>
       </c>
@@ -8679,7 +8802,7 @@
         <v>30559721604</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>222</v>
       </c>
@@ -8699,7 +8822,7 @@
         <v>47289272832</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>224</v>
       </c>
@@ -8719,7 +8842,7 @@
         <v>2973193112</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>226</v>
       </c>
@@ -8739,7 +8862,7 @@
         <v>2751349092</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>228</v>
       </c>
@@ -8759,7 +8882,7 @@
         <v>48410470839</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>232</v>
       </c>
@@ -8779,7 +8902,7 @@
         <v>47134069146</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>234</v>
       </c>
@@ -8799,7 +8922,7 @@
         <v>42539170933</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -8819,7 +8942,7 @@
         <v>43797425930</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -8839,7 +8962,7 @@
         <v>12267333195</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -8859,7 +8982,7 @@
         <v>6023991083</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>242</v>
       </c>
@@ -8879,7 +9002,7 @@
         <v>332695279539</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>244</v>
       </c>
@@ -8899,7 +9022,7 @@
         <v>3184015876</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>246</v>
       </c>
@@ -8919,7 +9042,7 @@
         <v>13712563211</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>248</v>
       </c>
@@ -8939,7 +9062,7 @@
         <v>10674823026</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>250</v>
       </c>
@@ -8959,7 +9082,7 @@
         <v>232544542</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>254</v>
       </c>
@@ -8979,7 +9102,7 @@
         <v>6866395922</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>256</v>
       </c>
@@ -8999,7 +9122,7 @@
         <v>13648096649</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -9019,7 +9142,7 @@
         <v>1263836399012</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -9039,7 +9162,7 @@
         <v>338033697</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -9059,7 +9182,7 @@
         <v>10689562747</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>268</v>
       </c>
@@ -9079,7 +9202,7 @@
         <v>12389164485</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>270</v>
       </c>
@@ -9099,7 +9222,7 @@
         <v>4548658066</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>274</v>
       </c>
@@ -9119,7 +9242,7 @@
         <v>106120314976</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>276</v>
       </c>
@@ -9139,7 +9262,7 @@
         <v>18071491916</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>278</v>
       </c>
@@ -9159,7 +9282,7 @@
         <v>64307272197</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>280</v>
       </c>
@@ -9179,7 +9302,7 @@
         <v>13095020139</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>282</v>
       </c>
@@ -9199,7 +9322,7 @@
         <v>153501335</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>284</v>
       </c>
@@ -9219,7 +9342,7 @@
         <v>20800339740</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>286</v>
       </c>
@@ -9239,7 +9362,7 @@
         <v>876560828108</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>290</v>
       </c>
@@ -9259,7 +9382,7 @@
         <v>187849228853</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>292</v>
       </c>
@@ -9279,7 +9402,7 @@
         <v>11244808826</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>294</v>
       </c>
@@ -9299,7 +9422,7 @@
         <v>11298670841</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -9319,7 +9442,7 @@
         <v>517951463622</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>304</v>
       </c>
@@ -9339,7 +9462,7 @@
         <v>537139521512</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>306</v>
       </c>
@@ -9359,7 +9482,7 @@
         <v>76568080520</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>308</v>
       </c>
@@ -9379,7 +9502,7 @@
         <v>240543638596</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>310</v>
       </c>
@@ -9399,7 +9522,7 @@
         <v>249444874</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>312</v>
       </c>
@@ -9419,7 +9542,7 @@
         <v>43640284166</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>314</v>
       </c>
@@ -9439,7 +9562,7 @@
         <v>23770284730</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>316</v>
       </c>
@@ -9459,7 +9582,7 @@
         <v>38160833587</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>318</v>
       </c>
@@ -9479,7 +9602,7 @@
         <v>196351054551</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>320</v>
       </c>
@@ -9499,7 +9622,7 @@
         <v>334247023391</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>322</v>
       </c>
@@ -9519,7 +9642,7 @@
         <v>515343641399</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>324</v>
       </c>
@@ -9539,7 +9662,7 @@
         <v>220418301201</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>326</v>
       </c>
@@ -9559,7 +9682,7 @@
         <v>68166124320</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>328</v>
       </c>
@@ -9579,7 +9702,7 @@
         <v>198914989301</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -9599,7 +9722,7 @@
         <v>193056534464</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>334</v>
       </c>
@@ -9619,7 +9742,7 @@
         <v>2137992977429</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>336</v>
       </c>
@@ -9639,7 +9762,7 @@
         <v>8191241459</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>350</v>
       </c>
@@ -9659,7 +9782,7 @@
         <v>733763174</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>356</v>
       </c>
@@ -9679,7 +9802,7 @@
         <v>789987737537</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>358</v>
       </c>
@@ -9699,7 +9822,7 @@
         <v>19522549591</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>360</v>
       </c>
@@ -9719,7 +9842,7 @@
         <v>44498603948</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>362</v>
       </c>
@@ -9739,7 +9862,7 @@
         <v>1219410960</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>364</v>
       </c>
@@ -9759,7 +9882,7 @@
         <v>4877344090</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>366</v>
       </c>
@@ -9779,7 +9902,7 @@
         <v>308396902808</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>372</v>
       </c>
@@ -9799,7 +9922,7 @@
         <v>48673696640</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>374</v>
       </c>
@@ -9819,7 +9942,7 @@
         <v>1289609218</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>378</v>
       </c>
@@ -9839,7 +9962,7 @@
         <v>368462469620</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>380</v>
       </c>
@@ -9859,7 +9982,7 @@
         <v>1429108721005</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>382</v>
       </c>
@@ -9879,7 +10002,7 @@
         <v>13158858190</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>384</v>
       </c>
@@ -9899,7 +10022,7 @@
         <v>1353952700480</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>386</v>
       </c>
@@ -9919,7 +10042,7 @@
         <v>75601403889</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>388</v>
       </c>
@@ -9939,7 +10062,7 @@
         <v>59538443108</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>390</v>
       </c>
@@ -9959,7 +10082,7 @@
         <v>5123441778</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>392</v>
       </c>
@@ -9979,7 +10102,7 @@
         <v>599863549335</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>394</v>
       </c>
@@ -9999,7 +10122,7 @@
         <v>708776894186</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>400</v>
       </c>
@@ -10019,7 +10142,7 @@
         <v>11132384115</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>402</v>
       </c>
@@ -10039,7 +10162,7 @@
         <v>47226664294</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>404</v>
       </c>
@@ -10059,7 +10182,7 @@
         <v>394296102521</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>406</v>
       </c>
@@ -10079,7 +10202,7 @@
         <v>3163028279</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>408</v>
       </c>
@@ -10099,7 +10222,7 @@
         <v>4557487310</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>412</v>
       </c>
@@ -10119,7 +10242,7 @@
         <v>464324855</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -10139,7 +10262,7 @@
         <v>25287696788</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>416</v>
       </c>
@@ -10159,7 +10282,7 @@
         <v>46075626104</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>418</v>
       </c>
@@ -10179,7 +10302,7 @@
         <v>975162941895</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>420</v>
       </c>
@@ -10199,7 +10322,7 @@
         <v>39382084894</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>422</v>
       </c>
@@ -10219,7 +10342,7 @@
         <v>823313692</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>424</v>
       </c>
@@ -10239,7 +10362,7 @@
         <v>51279708</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>430</v>
       </c>
@@ -10259,7 +10382,7 @@
         <v>408498689468</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>426</v>
       </c>
@@ -10279,7 +10402,7 @@
         <v>30240345440</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>428</v>
       </c>
@@ -10299,7 +10422,7 @@
         <v>153112371183</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>432</v>
       </c>
@@ -10319,7 +10442,7 @@
         <v>2865519515281</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>434</v>
       </c>
@@ -10339,7 +10462,7 @@
         <v>17781409349034</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>436</v>
       </c>
@@ -10359,7 +10482,7 @@
         <v>53821654200</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>438</v>
       </c>
@@ -10379,7 +10502,7 @@
         <v>75922505736</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>440</v>
       </c>
@@ -10399,7 +10522,7 @@
         <v>823797871</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>442</v>
       </c>
@@ -10419,7 +10542,7 @@
         <v>392924529822</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>444</v>
       </c>
@@ -10439,7 +10562,7 @@
         <v>172358561267</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>450</v>
       </c>
@@ -10459,7 +10582,7 @@
         <v>37717859271</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>452</v>
       </c>
@@ -10479,7 +10602,7 @@
         <v>27661033019</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>454</v>
       </c>

--- a/Data/Countries.xlsx
+++ b/Data/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Multilanguage-Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2174C20-6B6A-4386-BD5F-52A33090548B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650F003-F201-42FC-BD5D-0F86F85418AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5D268BA-851A-4EAD-A0EF-C78CA18730E1}"/>
   </bookViews>
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27933A0-B21A-4E19-BEBD-5575DCEB0ED6}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3777,7 +3777,7 @@
         <v>801</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>

--- a/Data/Countries.xlsx
+++ b/Data/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Multilanguage-Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650F003-F201-42FC-BD5D-0F86F85418AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CF2AF-F9EF-45CF-AF56-501E9882CE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5D268BA-851A-4EAD-A0EF-C78CA18730E1}"/>
   </bookViews>
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Countries.xlsx
+++ b/Data/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Multilanguage-Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CF2AF-F9EF-45CF-AF56-501E9882CE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F99F79-FEB2-47CA-BA63-AE77EACE5A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5D268BA-851A-4EAD-A0EF-C78CA18730E1}"/>
   </bookViews>
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27933A0-B21A-4E19-BEBD-5575DCEB0ED6}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
